--- a/Weather/Schedule/Schedule_V1.0.xlsx
+++ b/Weather/Schedule/Schedule_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data FPT University\Project_FPT_20210528\Doc\SharableDisk\Weather\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62A9A8-4627-4BC1-84F9-A6E110E139C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFADEF2E-CFC6-4BFC-ABFE-0868A35AD1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +217,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +236,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -256,10 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -292,9 +305,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Trung lập" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,7 +599,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,63 +664,63 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">

--- a/Weather/Schedule/Schedule_V1.0.xlsx
+++ b/Weather/Schedule/Schedule_V1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data FPT University\Project_FPT_20210528\Doc\SharableDisk\Weather\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FatBoy\Documents\SharableDisk\Weather\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62A9A8-4627-4BC1-84F9-A6E110E139C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="17490"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -80,9 +79,6 @@
     <t>{all weather}</t>
   </si>
   <si>
-    <t xml:space="preserve">get location of </t>
-  </si>
-  <si>
     <t>{ID,Name}</t>
   </si>
   <si>
@@ -197,12 +193,15 @@
   </si>
   <si>
     <t>17/06/2026</t>
+  </si>
+  <si>
+    <t>get location of IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +293,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,25 +570,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,15 +617,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -639,9 +638,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -650,17 +649,17 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -669,17 +668,17 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -690,17 +689,17 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -711,72 +710,72 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -787,7 +786,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -798,7 +797,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -809,7 +808,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -820,7 +819,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -831,7 +830,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -842,7 +841,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -853,7 +852,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -864,7 +863,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -875,7 +874,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -886,7 +885,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -897,7 +896,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -908,7 +907,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -919,7 +918,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -930,7 +929,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -941,7 +940,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -952,7 +951,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -971,22 +970,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA9DAC-E5F0-416F-84C0-DAADACD7AAAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,13 +1008,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7">
         <v>44357</v>
@@ -1024,17 +1023,17 @@
         <v>44361</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7">
         <v>44362</v>
@@ -1043,17 +1042,17 @@
         <v>44364</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
         <v>44361</v>
@@ -1062,17 +1061,17 @@
         <v>44363</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
         <v>44364</v>
@@ -1081,17 +1080,17 @@
         <v>44366</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
         <v>44367</v>
@@ -1100,17 +1099,17 @@
         <v>44369</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
         <v>44370</v>
@@ -1119,11 +1118,11 @@
         <v>44372</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1132,7 +1131,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1141,7 +1140,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1150,7 +1149,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1159,7 +1158,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1168,7 +1167,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1177,7 +1176,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1186,7 +1185,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1195,7 +1194,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1204,7 +1203,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -1213,7 +1212,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -1222,7 +1221,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -1231,7 +1230,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -1240,7 +1239,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1249,7 +1248,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -1258,7 +1257,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -1267,7 +1266,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -1276,7 +1275,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -1285,7 +1284,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -1301,24 +1300,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BAB6D-CDB3-4327-8CD2-5E4F5EA8E7A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,13 +1340,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7">
         <v>44357</v>
@@ -1356,17 +1355,17 @@
         <v>44367</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7">
         <v>44357</v>
@@ -1375,11 +1374,11 @@
         <v>44367</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -1388,7 +1387,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
@@ -1397,7 +1396,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -1406,7 +1405,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
@@ -1415,7 +1414,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1424,7 +1423,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1433,7 +1432,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1442,7 +1441,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1451,7 +1450,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1460,7 +1459,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1469,7 +1468,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1478,7 +1477,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1487,7 +1486,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1496,7 +1495,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -1505,7 +1504,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -1514,7 +1513,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -1523,7 +1522,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -1532,7 +1531,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1541,7 +1540,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -1550,7 +1549,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -1559,7 +1558,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -1568,7 +1567,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -1577,7 +1576,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
